--- a/src/main/resources/templates/UsecaseTemplate.xlsx
+++ b/src/main/resources/templates/UsecaseTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7695"/>
+    <workbookView windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="测试用例" sheetId="1" r:id="rId1"/>
@@ -201,6 +201,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>测试步骤</t>
     </r>
     <r>
@@ -215,6 +220,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>预期结果</t>
     </r>
     <r>
@@ -254,6 +264,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>用例性质</t>
     </r>
     <r>
@@ -268,6 +283,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>创建人</t>
     </r>
     <r>
@@ -287,7 +307,7 @@
     <t>关联测试需求编号</t>
   </si>
   <si>
-    <t>根节点\SIT1</t>
+    <t>系统集成测试SIT/第1轮/E终端远程银行协议优化/如图宇航</t>
   </si>
   <si>
     <t>首页</t>
@@ -1000,7 +1020,7 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1010,9 +1030,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1380,17 +1397,17 @@
   <sheetPr/>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="83.6333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="83.6296296296296" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="33.9083333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="46.7777777777778" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.6296296296296" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
     <col min="7" max="8" width="12.75" style="1" customWidth="1"/>
     <col min="9" max="12" width="9" style="1"/>
@@ -1438,160 +1455,160 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="33.75" spans="1:13">
+    <row r="2" ht="43.2" spans="1:13">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" customFormat="1" ht="45" spans="1:13">
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" customFormat="1" ht="54" spans="1:13">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-    </row>
-    <row r="4" spans="10:10">
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="10:10">
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="10:10">
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="10:10">
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="10:10">
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="10:10">
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="10:10">
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="10:10">
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="10:10">
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="10:10">
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="10:10">
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="10:10">
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="10:10">
-      <c r="J16" s="8"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="J16" s="7"/>
     </row>
     <row r="17" spans="10:10">
-      <c r="J17" s="8"/>
+      <c r="J17" s="7"/>
     </row>
     <row r="18" spans="10:10">
-      <c r="J18" s="8"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" spans="10:10">
-      <c r="J19" s="8"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" spans="10:10">
-      <c r="J20" s="8"/>
+      <c r="J20" s="7"/>
     </row>
     <row r="21" spans="10:10">
-      <c r="J21" s="8"/>
+      <c r="J21" s="7"/>
     </row>
     <row r="22" spans="10:10">
-      <c r="J22" s="8"/>
+      <c r="J22" s="7"/>
     </row>
     <row r="23" spans="10:10">
-      <c r="J23" s="8"/>
+      <c r="J23" s="7"/>
     </row>
     <row r="24" spans="10:10">
-      <c r="J24" s="8"/>
+      <c r="J24" s="7"/>
     </row>
     <row r="25" spans="10:10">
-      <c r="J25" s="8"/>
+      <c r="J25" s="7"/>
     </row>
     <row r="26" spans="10:10">
-      <c r="J26" s="8"/>
+      <c r="J26" s="7"/>
     </row>
     <row r="27" spans="10:10">
-      <c r="J27" s="8"/>
+      <c r="J27" s="7"/>
     </row>
     <row r="28" spans="10:10">
-      <c r="J28" s="8"/>
+      <c r="J28" s="7"/>
     </row>
     <row r="29" spans="10:10">
-      <c r="J29" s="8"/>
+      <c r="J29" s="7"/>
     </row>
     <row r="30" spans="10:10">
-      <c r="J30" s="8"/>
+      <c r="J30" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="2">

--- a/src/main/resources/templates/UsecaseTemplate.xlsx
+++ b/src/main/resources/templates/UsecaseTemplate.xlsx
@@ -10,7 +10,7 @@
     <sheet name="测试用例" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">测试用例!$A$1:$M$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">测试用例!$B$1:$N$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,12 +32,25 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Administrator</author>
     <author>huangzy</author>
     <author>Qinghe</author>
     <author>User</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>‘用例ID’为空时为新增用例，不为空则为修改用例</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -50,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="1">
+    <comment ref="H1" authorId="2">
       <text>
         <r>
           <rPr>
@@ -63,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1">
+    <comment ref="I1" authorId="2">
       <text>
         <r>
           <rPr>
@@ -75,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="J1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -88,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="2">
+    <comment ref="K1" authorId="3">
       <text>
         <r>
           <rPr>
@@ -100,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="L1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -113,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="2">
+    <comment ref="M1" authorId="3">
       <text>
         <r>
           <rPr>
@@ -125,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="2">
+    <comment ref="N1" authorId="3">
       <text>
         <r>
           <rPr>
@@ -137,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="2">
+    <comment ref="J2" authorId="3">
       <text>
         <r>
           <rPr>
@@ -154,7 +167,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+  <si>
+    <t>用例ID</t>
+  </si>
   <si>
     <r>
       <rPr>
@@ -304,7 +320,7 @@
     <t>修改人</t>
   </si>
   <si>
-    <t>关联测试需求编号</t>
+    <t>关联测试需求点</t>
   </si>
   <si>
     <t>系统集成测试SIT/第1轮/E终端远程银行协议优化/如图宇航</t>
@@ -1395,30 +1411,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="83.6296296296296" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="46.7777777777778" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.6296296296296" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
-    <col min="7" max="8" width="12.75" style="1" customWidth="1"/>
-    <col min="9" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="13.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="46.7777777777778" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.6296296296296" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5" style="1" customWidth="1"/>
+    <col min="8" max="9" width="12.75" style="1" customWidth="1"/>
+    <col min="10" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="13.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1454,27 +1471,28 @@
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" ht="43.2" spans="1:13">
-      <c r="A2" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="2" ht="43.2" spans="1:14">
+      <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -1483,139 +1501,143 @@
       <c r="I2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="5"/>
+      <c r="L2" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="M2" s="5"/>
-    </row>
-    <row r="3" customFormat="1" ht="54" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" customFormat="1" ht="54" spans="1:14">
+      <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>24</v>
+      <c r="E3" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>19</v>
+      <c r="G3" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="5"/>
+      <c r="L3" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="10:10">
-      <c r="J17" s="7"/>
-    </row>
-    <row r="18" spans="10:10">
-      <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="10:10">
-      <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="10:10">
-      <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="10:10">
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="10:10">
-      <c r="J22" s="7"/>
-    </row>
-    <row r="23" spans="10:10">
-      <c r="J23" s="7"/>
-    </row>
-    <row r="24" spans="10:10">
-      <c r="J24" s="7"/>
-    </row>
-    <row r="25" spans="10:10">
-      <c r="J25" s="7"/>
-    </row>
-    <row r="26" spans="10:10">
-      <c r="J26" s="7"/>
-    </row>
-    <row r="27" spans="10:10">
-      <c r="J27" s="7"/>
-    </row>
-    <row r="28" spans="10:10">
-      <c r="J28" s="7"/>
-    </row>
-    <row r="29" spans="10:10">
-      <c r="J29" s="7"/>
-    </row>
-    <row r="30" spans="10:10">
-      <c r="J30" s="7"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="11:11">
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="11:11">
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="11:11">
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="11:11">
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="11:11">
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="11:11">
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="11:11">
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="11:11">
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="11:11">
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="11:11">
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="11:11">
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="11:11">
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="11:11">
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="11:11">
+      <c r="K30" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576">
       <formula1>"正向用例,反向用例"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/resources/templates/UsecaseTemplate.xlsx
+++ b/src/main/resources/templates/UsecaseTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180"/>
+    <workbookView windowWidth="20490" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="测试用例" sheetId="1" r:id="rId1"/>
@@ -348,7 +348,7 @@
     <t>功能测试</t>
   </si>
   <si>
-    <t>业务</t>
+    <t>功能</t>
   </si>
   <si>
     <t>高</t>
@@ -372,7 +372,7 @@
 4、..........。</t>
   </si>
   <si>
-    <t>页面要素</t>
+    <t>规则</t>
   </si>
 </sst>
 </file>
@@ -1414,17 +1414,17 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="83.6296296296296" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="83.6333333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="46.7777777777778" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1083333333333" customWidth="1"/>
+    <col min="2" max="2" width="46.775" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.6296296296296" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.6333333333333" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.5" style="1" customWidth="1"/>
     <col min="8" max="9" width="12.75" style="1" customWidth="1"/>
     <col min="10" max="13" width="9" style="1"/>
@@ -1475,7 +1475,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="43.2" spans="1:14">
+    <row r="2" ht="33.75" spans="1:14">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>14</v>
@@ -1513,7 +1513,7 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" customFormat="1" ht="54" spans="1:14">
+    <row r="3" customFormat="1" ht="45" spans="1:14">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>14</v>
